--- a/biology/Botanique/Gloeosporium_orbiculare/Gloeosporium_orbiculare.xlsx
+++ b/biology/Botanique/Gloeosporium_orbiculare/Gloeosporium_orbiculare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gloeosporium orbiculare (syn. Colletotrichum orbiculare) est une espèce de champignons ascomycètes de la famille des Dermateaceae.
-C'est un champignon phytopathogène, responsable de l'anthracnose des Curcubitacées, ou nuile rouge[2].
+C'est un champignon phytopathogène, responsable de l'anthracnose des Curcubitacées, ou nuile rouge.
 La forme téléomorphe (sexuée) est Glomerella lagenaria.
 </t>
         </is>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (17 août 2015)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 août 2015) :
 Colletotrichum lagenaria (Pass.) Ellis &amp; Halst. 1893
 Colletotrichum oligochaetum Cavara 1889
 Colletotrichum orbiculare (Berk.) Arx 1957
@@ -526,9 +543,43 @@
 Glomerella cingulata var. orbiculare S.F. Jenkins &amp; Winstead 1962
 Glomerella lagenaria (Pass.) F. Stevens 1931 (téléomorphe)
 Myxosporium orbiculare (Berk.) Berk. 1860
-Sirogloea orbicularis (Berk.) Arx 1957
-Liste des non-classés
-Selon NCBI  (17 août 2015)[3] :
+Sirogloea orbicularis (Berk.) Arx 1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gloeosporium_orbiculare</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gloeosporium_orbiculare</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des non-classés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (17 août 2015) :
 non-classé Colletotrichum orbiculare MAFF 240422</t>
         </is>
       </c>
